--- a/result/problem_1/erf/result_8.xlsx
+++ b/result/problem_1/erf/result_8.xlsx
@@ -496,16 +496,16 @@
         <v>11370919</v>
       </c>
       <c r="C3" t="n">
-        <v>6618</v>
+        <v>6922</v>
       </c>
       <c r="D3" t="n">
-        <v>6778</v>
+        <v>7082</v>
       </c>
       <c r="E3" t="n">
         <v>4500</v>
       </c>
       <c r="F3" t="n">
-        <v>2278</v>
+        <v>2582</v>
       </c>
       <c r="G3" t="n">
         <v>160</v>
@@ -542,16 +542,16 @@
         <v>11374151</v>
       </c>
       <c r="C5" t="n">
-        <v>2140</v>
+        <v>2285</v>
       </c>
       <c r="D5" t="n">
-        <v>2285</v>
+        <v>2430</v>
       </c>
       <c r="E5" t="n">
         <v>1350</v>
       </c>
       <c r="F5" t="n">
-        <v>935</v>
+        <v>1080</v>
       </c>
       <c r="G5" t="n">
         <v>145</v>
@@ -706,13 +706,13 @@
         <v>5315</v>
       </c>
       <c r="D12" t="n">
-        <v>6618</v>
+        <v>5744</v>
       </c>
       <c r="E12" t="n">
         <v>4500</v>
       </c>
       <c r="F12" t="n">
-        <v>2118</v>
+        <v>1244</v>
       </c>
       <c r="G12" t="n">
         <v>429</v>
@@ -726,16 +726,16 @@
         <v>11378557</v>
       </c>
       <c r="C13" t="n">
-        <v>5517</v>
+        <v>5744</v>
       </c>
       <c r="D13" t="n">
-        <v>7730</v>
+        <v>6048</v>
       </c>
       <c r="E13" t="n">
         <v>4500</v>
       </c>
       <c r="F13" t="n">
-        <v>3230</v>
+        <v>1548</v>
       </c>
       <c r="G13" t="n">
         <v>304</v>
@@ -749,16 +749,16 @@
         <v>11378558</v>
       </c>
       <c r="C14" t="n">
-        <v>5669</v>
+        <v>6048</v>
       </c>
       <c r="D14" t="n">
-        <v>7882</v>
+        <v>6352</v>
       </c>
       <c r="E14" t="n">
         <v>4500</v>
       </c>
       <c r="F14" t="n">
-        <v>3382</v>
+        <v>1852</v>
       </c>
       <c r="G14" t="n">
         <v>304</v>
@@ -772,16 +772,16 @@
         <v>11378559</v>
       </c>
       <c r="C15" t="n">
-        <v>6778</v>
+        <v>7082</v>
       </c>
       <c r="D15" t="n">
-        <v>6938</v>
+        <v>7242</v>
       </c>
       <c r="E15" t="n">
         <v>4500</v>
       </c>
       <c r="F15" t="n">
-        <v>2438</v>
+        <v>2742</v>
       </c>
       <c r="G15" t="n">
         <v>160</v>
@@ -1025,16 +1025,16 @@
         <v>11429165</v>
       </c>
       <c r="C26" t="n">
-        <v>2285</v>
+        <v>2430</v>
       </c>
       <c r="D26" t="n">
-        <v>2430</v>
+        <v>2575</v>
       </c>
       <c r="E26" t="n">
         <v>1350</v>
       </c>
       <c r="F26" t="n">
-        <v>1080</v>
+        <v>1225</v>
       </c>
       <c r="G26" t="n">
         <v>145</v>
@@ -1048,16 +1048,16 @@
         <v>11429166</v>
       </c>
       <c r="C27" t="n">
-        <v>2430</v>
+        <v>2575</v>
       </c>
       <c r="D27" t="n">
-        <v>2575</v>
+        <v>2720</v>
       </c>
       <c r="E27" t="n">
         <v>1350</v>
       </c>
       <c r="F27" t="n">
-        <v>1225</v>
+        <v>1370</v>
       </c>
       <c r="G27" t="n">
         <v>145</v>
@@ -1071,16 +1071,16 @@
         <v>11429167</v>
       </c>
       <c r="C28" t="n">
-        <v>2575</v>
+        <v>2720</v>
       </c>
       <c r="D28" t="n">
-        <v>2720</v>
+        <v>2865</v>
       </c>
       <c r="E28" t="n">
         <v>1350</v>
       </c>
       <c r="F28" t="n">
-        <v>1370</v>
+        <v>1515</v>
       </c>
       <c r="G28" t="n">
         <v>145</v>
@@ -1094,10 +1094,10 @@
         <v>11429176</v>
       </c>
       <c r="C29" t="n">
-        <v>145</v>
+        <v>290</v>
       </c>
       <c r="D29" t="n">
-        <v>430</v>
+        <v>575</v>
       </c>
       <c r="E29" t="n">
         <v>1350</v>
@@ -1117,10 +1117,10 @@
         <v>11429177</v>
       </c>
       <c r="C30" t="n">
-        <v>430</v>
+        <v>575</v>
       </c>
       <c r="D30" t="n">
-        <v>715</v>
+        <v>860</v>
       </c>
       <c r="E30" t="n">
         <v>1350</v>
@@ -1140,10 +1140,10 @@
         <v>11429178</v>
       </c>
       <c r="C31" t="n">
-        <v>715</v>
+        <v>860</v>
       </c>
       <c r="D31" t="n">
-        <v>1000</v>
+        <v>1145</v>
       </c>
       <c r="E31" t="n">
         <v>1350</v>
@@ -1163,16 +1163,16 @@
         <v>11429179</v>
       </c>
       <c r="C32" t="n">
-        <v>1000</v>
+        <v>1145</v>
       </c>
       <c r="D32" t="n">
-        <v>1285</v>
+        <v>1430</v>
       </c>
       <c r="E32" t="n">
         <v>1350</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G32" t="n">
         <v>285</v>
@@ -1186,16 +1186,16 @@
         <v>11429180</v>
       </c>
       <c r="C33" t="n">
-        <v>1285</v>
+        <v>1430</v>
       </c>
       <c r="D33" t="n">
-        <v>1570</v>
+        <v>1715</v>
       </c>
       <c r="E33" t="n">
         <v>1350</v>
       </c>
       <c r="F33" t="n">
-        <v>220</v>
+        <v>365</v>
       </c>
       <c r="G33" t="n">
         <v>285</v>
@@ -1209,16 +1209,16 @@
         <v>11429181</v>
       </c>
       <c r="C34" t="n">
-        <v>1570</v>
+        <v>1715</v>
       </c>
       <c r="D34" t="n">
-        <v>1855</v>
+        <v>2000</v>
       </c>
       <c r="E34" t="n">
         <v>1350</v>
       </c>
       <c r="F34" t="n">
-        <v>505</v>
+        <v>650</v>
       </c>
       <c r="G34" t="n">
         <v>285</v>
@@ -1232,16 +1232,16 @@
         <v>11429182</v>
       </c>
       <c r="C35" t="n">
-        <v>1855</v>
+        <v>2000</v>
       </c>
       <c r="D35" t="n">
-        <v>2140</v>
+        <v>2285</v>
       </c>
       <c r="E35" t="n">
         <v>1350</v>
       </c>
       <c r="F35" t="n">
-        <v>790</v>
+        <v>935</v>
       </c>
       <c r="G35" t="n">
         <v>285</v>
@@ -1258,13 +1258,13 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>2865</v>
+        <v>290</v>
       </c>
       <c r="E36" t="n">
         <v>1350</v>
       </c>
       <c r="F36" t="n">
-        <v>1515</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>290</v>
@@ -1278,16 +1278,16 @@
         <v>11485885</v>
       </c>
       <c r="C37" t="n">
-        <v>5821</v>
+        <v>6352</v>
       </c>
       <c r="D37" t="n">
-        <v>6106</v>
+        <v>6637</v>
       </c>
       <c r="E37" t="n">
         <v>4500</v>
       </c>
       <c r="F37" t="n">
-        <v>1606</v>
+        <v>2137</v>
       </c>
       <c r="G37" t="n">
         <v>285</v>
@@ -1301,16 +1301,16 @@
         <v>11485895</v>
       </c>
       <c r="C38" t="n">
-        <v>6938</v>
+        <v>7242</v>
       </c>
       <c r="D38" t="n">
-        <v>7098</v>
+        <v>7402</v>
       </c>
       <c r="E38" t="n">
         <v>4500</v>
       </c>
       <c r="F38" t="n">
-        <v>2598</v>
+        <v>2902</v>
       </c>
       <c r="G38" t="n">
         <v>160</v>
@@ -1324,16 +1324,16 @@
         <v>11485896</v>
       </c>
       <c r="C39" t="n">
-        <v>7098</v>
+        <v>7402</v>
       </c>
       <c r="D39" t="n">
-        <v>7258</v>
+        <v>7562</v>
       </c>
       <c r="E39" t="n">
         <v>4500</v>
       </c>
       <c r="F39" t="n">
-        <v>2758</v>
+        <v>3062</v>
       </c>
       <c r="G39" t="n">
         <v>160</v>
@@ -1347,16 +1347,16 @@
         <v>11485898</v>
       </c>
       <c r="C40" t="n">
-        <v>7258</v>
+        <v>7562</v>
       </c>
       <c r="D40" t="n">
-        <v>7418</v>
+        <v>7722</v>
       </c>
       <c r="E40" t="n">
         <v>4500</v>
       </c>
       <c r="F40" t="n">
-        <v>2918</v>
+        <v>3222</v>
       </c>
       <c r="G40" t="n">
         <v>160</v>
@@ -1370,16 +1370,16 @@
         <v>11485899</v>
       </c>
       <c r="C41" t="n">
-        <v>7418</v>
+        <v>7722</v>
       </c>
       <c r="D41" t="n">
-        <v>7578</v>
+        <v>7882</v>
       </c>
       <c r="E41" t="n">
         <v>4500</v>
       </c>
       <c r="F41" t="n">
-        <v>3078</v>
+        <v>3382</v>
       </c>
       <c r="G41" t="n">
         <v>160</v>
@@ -1416,16 +1416,16 @@
         <v>11485917</v>
       </c>
       <c r="C43" t="n">
-        <v>6106</v>
+        <v>6637</v>
       </c>
       <c r="D43" t="n">
-        <v>6391</v>
+        <v>6922</v>
       </c>
       <c r="E43" t="n">
         <v>4500</v>
       </c>
       <c r="F43" t="n">
-        <v>1891</v>
+        <v>2422</v>
       </c>
       <c r="G43" t="n">
         <v>285</v>
